--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Egf-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Egf-Erbb3.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02333866666666666</v>
+        <v>0.07285266666666666</v>
       </c>
       <c r="H2">
-        <v>0.07001599999999999</v>
+        <v>0.218558</v>
       </c>
       <c r="I2">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277382</v>
       </c>
       <c r="J2">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277381</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04178033333333334</v>
+        <v>0.032838</v>
       </c>
       <c r="N2">
-        <v>0.125341</v>
+        <v>0.098514</v>
       </c>
       <c r="O2">
-        <v>0.009630623139527363</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="P2">
-        <v>0.009630623139527362</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="Q2">
-        <v>0.0009750972728888889</v>
+        <v>0.002392335868</v>
       </c>
       <c r="R2">
-        <v>0.008775875456000001</v>
+        <v>0.021531022812</v>
       </c>
       <c r="S2">
-        <v>0.0002150232019646956</v>
+        <v>0.0003991150095504469</v>
       </c>
       <c r="T2">
-        <v>0.0002150232019646955</v>
+        <v>0.0003991150095504469</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02333866666666666</v>
+        <v>0.07285266666666666</v>
       </c>
       <c r="H3">
-        <v>0.07001599999999999</v>
+        <v>0.218558</v>
       </c>
       <c r="I3">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277382</v>
       </c>
       <c r="J3">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277381</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.544755</v>
       </c>
       <c r="O3">
-        <v>0.04185645645377992</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="P3">
-        <v>0.04185645645377991</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="Q3">
-        <v>0.004237951786666666</v>
+        <v>0.01322895147666667</v>
       </c>
       <c r="R3">
-        <v>0.03814156607999999</v>
+        <v>0.11906056329</v>
       </c>
       <c r="S3">
-        <v>0.0009345303163871177</v>
+        <v>0.002206994914709115</v>
       </c>
       <c r="T3">
-        <v>0.0009345303163871176</v>
+        <v>0.002206994914709114</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02333866666666666</v>
+        <v>0.07285266666666666</v>
       </c>
       <c r="H4">
-        <v>0.07001599999999999</v>
+        <v>0.218558</v>
       </c>
       <c r="I4">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277382</v>
       </c>
       <c r="J4">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277381</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.702762666666666</v>
+        <v>3.814633</v>
       </c>
       <c r="N4">
-        <v>11.108288</v>
+        <v>11.443899</v>
       </c>
       <c r="O4">
-        <v>0.8535095096842543</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="P4">
-        <v>0.8535095096842541</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="Q4">
-        <v>0.08641754362311109</v>
+        <v>0.2779061864046667</v>
       </c>
       <c r="R4">
-        <v>0.7777578926079998</v>
+        <v>2.501155677642</v>
       </c>
       <c r="S4">
-        <v>0.01905633156035139</v>
+        <v>0.04636327688124886</v>
       </c>
       <c r="T4">
-        <v>0.01905633156035139</v>
+        <v>0.04636327688124886</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02333866666666666</v>
+        <v>0.07285266666666666</v>
       </c>
       <c r="H5">
-        <v>0.07001599999999999</v>
+        <v>0.218558</v>
       </c>
       <c r="I5">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277382</v>
       </c>
       <c r="J5">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277381</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4121513333333333</v>
+        <v>0.5660336666666667</v>
       </c>
       <c r="N5">
-        <v>1.236454</v>
+        <v>1.698101</v>
       </c>
       <c r="O5">
-        <v>0.09500341072243851</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="P5">
-        <v>0.09500341072243849</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="Q5">
-        <v>0.009619062584888887</v>
+        <v>0.04123706203977778</v>
       </c>
       <c r="R5">
-        <v>0.08657156326399999</v>
+        <v>0.371133558358</v>
       </c>
       <c r="S5">
-        <v>0.002121143904724357</v>
+        <v>0.006879606927265399</v>
       </c>
       <c r="T5">
-        <v>0.002121143904724357</v>
+        <v>0.006879606927265397</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.717871</v>
       </c>
       <c r="I6">
-        <v>0.5478027251883811</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="J6">
-        <v>0.547802725188381</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.04178033333333334</v>
+        <v>0.032838</v>
       </c>
       <c r="N6">
-        <v>0.125341</v>
+        <v>0.098514</v>
       </c>
       <c r="O6">
-        <v>0.009630623139527363</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="P6">
-        <v>0.009630623139527362</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="Q6">
-        <v>0.02392440766788889</v>
+        <v>0.018803815966</v>
       </c>
       <c r="R6">
-        <v>0.215319669011</v>
+        <v>0.169234343694</v>
       </c>
       <c r="S6">
-        <v>0.005275681601095372</v>
+        <v>0.003137053324844827</v>
       </c>
       <c r="T6">
-        <v>0.00527568160109537</v>
+        <v>0.003137053324844828</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.717871</v>
       </c>
       <c r="I7">
-        <v>0.5478027251883811</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="J7">
-        <v>0.547802725188381</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.544755</v>
       </c>
       <c r="O7">
-        <v>0.04185645645377992</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="P7">
-        <v>0.04185645645377991</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="Q7">
         <v>0.1039798685116667</v>
@@ -883,10 +883,10 @@
         <v>0.935818816605</v>
       </c>
       <c r="S7">
-        <v>0.02292908091210944</v>
+        <v>0.01734703173128534</v>
       </c>
       <c r="T7">
-        <v>0.02292908091210943</v>
+        <v>0.01734703173128534</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.717871</v>
       </c>
       <c r="I8">
-        <v>0.5478027251883811</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="J8">
-        <v>0.547802725188381</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.702762666666666</v>
+        <v>3.814633</v>
       </c>
       <c r="N8">
-        <v>11.108288</v>
+        <v>11.443899</v>
       </c>
       <c r="O8">
-        <v>0.8535095096842543</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="P8">
-        <v>0.8535095096842541</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="Q8">
-        <v>2.120289534983111</v>
+        <v>2.184349135447667</v>
       </c>
       <c r="R8">
-        <v>19.08260581484799</v>
+        <v>19.659142219029</v>
       </c>
       <c r="S8">
-        <v>0.4675548353792335</v>
+        <v>0.3644164424055302</v>
       </c>
       <c r="T8">
-        <v>0.4675548353792333</v>
+        <v>0.3644164424055302</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.717871</v>
       </c>
       <c r="I9">
-        <v>0.5478027251883811</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="J9">
-        <v>0.547802725188381</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4121513333333333</v>
+        <v>0.5660336666666667</v>
       </c>
       <c r="N9">
-        <v>1.236454</v>
+        <v>1.698101</v>
       </c>
       <c r="O9">
-        <v>0.09500341072243851</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="P9">
-        <v>0.09500341072243849</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="Q9">
-        <v>0.2360076077148889</v>
+        <v>0.3241242736634444</v>
       </c>
       <c r="R9">
-        <v>2.124068469434</v>
+        <v>2.917118462971</v>
       </c>
       <c r="S9">
-        <v>0.05204312729594288</v>
+        <v>0.05407387161187573</v>
       </c>
       <c r="T9">
-        <v>0.05204312729594287</v>
+        <v>0.05407387161187573</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.432615</v>
+        <v>0.594248</v>
       </c>
       <c r="H10">
-        <v>1.297845</v>
+        <v>1.782744</v>
       </c>
       <c r="I10">
-        <v>0.4138628732146444</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="J10">
-        <v>0.4138628732146444</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.04178033333333334</v>
+        <v>0.032838</v>
       </c>
       <c r="N10">
-        <v>0.125341</v>
+        <v>0.098514</v>
       </c>
       <c r="O10">
-        <v>0.009630623139527363</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="P10">
-        <v>0.009630623139527362</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="Q10">
-        <v>0.018074798905</v>
+        <v>0.019513915824</v>
       </c>
       <c r="R10">
-        <v>0.162673190145</v>
+        <v>0.175625242416</v>
       </c>
       <c r="S10">
-        <v>0.003985757363372234</v>
+        <v>0.003255519764026034</v>
       </c>
       <c r="T10">
-        <v>0.003985757363372234</v>
+        <v>0.003255519764026034</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.432615</v>
+        <v>0.594248</v>
       </c>
       <c r="H11">
-        <v>1.297845</v>
+        <v>1.782744</v>
       </c>
       <c r="I11">
-        <v>0.4138628732146444</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="J11">
-        <v>0.4138628732146444</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.544755</v>
       </c>
       <c r="O11">
-        <v>0.04185645645377992</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="P11">
-        <v>0.04185645645377991</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="Q11">
-        <v>0.078556394775</v>
+        <v>0.10790652308</v>
       </c>
       <c r="R11">
-        <v>0.707007552975</v>
+        <v>0.97115870772</v>
       </c>
       <c r="S11">
-        <v>0.017322833330545</v>
+        <v>0.01800211816647382</v>
       </c>
       <c r="T11">
-        <v>0.017322833330545</v>
+        <v>0.01800211816647382</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.432615</v>
+        <v>0.594248</v>
       </c>
       <c r="H12">
-        <v>1.297845</v>
+        <v>1.782744</v>
       </c>
       <c r="I12">
-        <v>0.4138628732146444</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="J12">
-        <v>0.4138628732146444</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.702762666666666</v>
+        <v>3.814633</v>
       </c>
       <c r="N12">
-        <v>11.108288</v>
+        <v>11.443899</v>
       </c>
       <c r="O12">
-        <v>0.8535095096842543</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="P12">
-        <v>0.8535095096842541</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="Q12">
-        <v>1.60187067104</v>
+        <v>2.266838030984</v>
       </c>
       <c r="R12">
-        <v>14.41683603936</v>
+        <v>20.401542278856</v>
       </c>
       <c r="S12">
-        <v>0.3532358979939479</v>
+        <v>0.3781781205921775</v>
       </c>
       <c r="T12">
-        <v>0.3532358979939478</v>
+        <v>0.3781781205921775</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.432615</v>
+        <v>0.594248</v>
       </c>
       <c r="H13">
-        <v>1.297845</v>
+        <v>1.782744</v>
       </c>
       <c r="I13">
-        <v>0.4138628732146444</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="J13">
-        <v>0.4138628732146444</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4121513333333333</v>
+        <v>0.5660336666666667</v>
       </c>
       <c r="N13">
-        <v>1.236454</v>
+        <v>1.698101</v>
       </c>
       <c r="O13">
-        <v>0.09500341072243851</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="P13">
-        <v>0.09500341072243849</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="Q13">
-        <v>0.17830284907</v>
+        <v>0.3363643743493333</v>
       </c>
       <c r="R13">
-        <v>1.60472564163</v>
+        <v>3.027279369144</v>
       </c>
       <c r="S13">
-        <v>0.03931838452677936</v>
+        <v>0.05611589588091411</v>
       </c>
       <c r="T13">
-        <v>0.03931838452677935</v>
+        <v>0.0561158958809141</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01673266666666667</v>
+        <v>0.06473366666666668</v>
       </c>
       <c r="H14">
-        <v>0.050198</v>
+        <v>0.194201</v>
       </c>
       <c r="I14">
-        <v>0.01600737261354686</v>
+        <v>0.04962495279009878</v>
       </c>
       <c r="J14">
-        <v>0.01600737261354686</v>
+        <v>0.04962495279009878</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,28 +1299,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.04178033333333334</v>
+        <v>0.032838</v>
       </c>
       <c r="N14">
-        <v>0.125341</v>
+        <v>0.098514</v>
       </c>
       <c r="O14">
-        <v>0.009630623139527363</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="P14">
-        <v>0.009630623139527362</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="Q14">
-        <v>0.0006990963908888889</v>
+        <v>0.002125724146</v>
       </c>
       <c r="R14">
-        <v>0.006291867518</v>
+        <v>0.019131517314</v>
       </c>
       <c r="S14">
-        <v>0.000154160973095061</v>
+        <v>0.0003546359957983984</v>
       </c>
       <c r="T14">
-        <v>0.0001541609730950609</v>
+        <v>0.0003546359957983984</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01673266666666667</v>
+        <v>0.06473366666666668</v>
       </c>
       <c r="H15">
-        <v>0.050198</v>
+        <v>0.194201</v>
       </c>
       <c r="I15">
-        <v>0.01600737261354686</v>
+        <v>0.04962495279009878</v>
       </c>
       <c r="J15">
-        <v>0.01600737261354686</v>
+        <v>0.04962495279009878</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.544755</v>
       </c>
       <c r="O15">
-        <v>0.04185645645377992</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="P15">
-        <v>0.04185645645377991</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="Q15">
-        <v>0.003038401276666667</v>
+        <v>0.01175466286166667</v>
       </c>
       <c r="R15">
-        <v>0.02734561149</v>
+        <v>0.105791965755</v>
       </c>
       <c r="S15">
-        <v>0.0006700118947383533</v>
+        <v>0.001961038348774352</v>
       </c>
       <c r="T15">
-        <v>0.0006700118947383532</v>
+        <v>0.001961038348774352</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01673266666666667</v>
+        <v>0.06473366666666668</v>
       </c>
       <c r="H16">
-        <v>0.050198</v>
+        <v>0.194201</v>
       </c>
       <c r="I16">
-        <v>0.01600737261354686</v>
+        <v>0.04962495279009878</v>
       </c>
       <c r="J16">
-        <v>0.01600737261354686</v>
+        <v>0.04962495279009878</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.702762666666666</v>
+        <v>3.814633</v>
       </c>
       <c r="N16">
-        <v>11.108288</v>
+        <v>11.443899</v>
       </c>
       <c r="O16">
-        <v>0.8535095096842543</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="P16">
-        <v>0.8535095096842541</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="Q16">
-        <v>0.0619570934471111</v>
+        <v>0.2469351810776667</v>
       </c>
       <c r="R16">
-        <v>0.5576138410239999</v>
+        <v>2.222416629699</v>
       </c>
       <c r="S16">
-        <v>0.01366244475072154</v>
+        <v>0.04119636313296888</v>
       </c>
       <c r="T16">
-        <v>0.01366244475072154</v>
+        <v>0.04119636313296887</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.01673266666666667</v>
+        <v>0.06473366666666668</v>
       </c>
       <c r="H17">
-        <v>0.050198</v>
+        <v>0.194201</v>
       </c>
       <c r="I17">
-        <v>0.01600737261354686</v>
+        <v>0.04962495279009878</v>
       </c>
       <c r="J17">
-        <v>0.01600737261354686</v>
+        <v>0.04962495279009878</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4121513333333333</v>
+        <v>0.5660336666666667</v>
       </c>
       <c r="N17">
-        <v>1.236454</v>
+        <v>1.698101</v>
       </c>
       <c r="O17">
-        <v>0.09500341072243851</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="P17">
-        <v>0.09500341072243849</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="Q17">
-        <v>0.006896390876888888</v>
+        <v>0.03664143470011112</v>
       </c>
       <c r="R17">
-        <v>0.062067517892</v>
+        <v>0.329772912301</v>
       </c>
       <c r="S17">
-        <v>0.001520754994991906</v>
+        <v>0.006112915312557161</v>
       </c>
       <c r="T17">
-        <v>0.001520754994991906</v>
+        <v>0.006112915312557159</v>
       </c>
     </row>
   </sheetData>
